--- a/Exceptions/ExMechSimple.xlsx
+++ b/Exceptions/ExMechSimple.xlsx
@@ -27,9 +27,6 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>01_3_56</t>
+  </si>
+  <si>
+    <t>/*...*/</t>
   </si>
 </sst>
 </file>
@@ -218,6 +218,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,39 +237,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,7 +274,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -283,7 +283,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,11 +291,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="try" dataDxfId="5"/>
-    <tableColumn id="2" name="catch (RuntimeException)" dataDxfId="4"/>
+    <tableColumn id="1" name="try" dataDxfId="3"/>
+    <tableColumn id="2" name="catch (RuntimeException)" dataDxfId="2"/>
     <tableColumn id="3" name="finally" dataDxfId="1"/>
     <tableColumn id="4" name="Результат" dataDxfId="0"/>
   </tableColumns>
@@ -591,7 +591,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -620,416 +620,416 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="13"/>
-      <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="9"/>
+      <c r="O7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="P12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="P9:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
